--- a/利润表/300055.xlsx
+++ b/利润表/300055.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>92133042.86</v>
+        <v>74617232.42</v>
       </c>
       <c r="P2" t="n">
-        <v>403324276.24</v>
+        <v>840125824.51</v>
       </c>
       <c r="Q2" t="n">
-        <v>281297039.98</v>
+        <v>658192468.78</v>
       </c>
       <c r="R2" t="n">
-        <v>-47.9162091445</v>
+        <v>-40.5801766401</v>
       </c>
       <c r="S2" t="n">
-        <v>258091009.94</v>
+        <v>551763159.7</v>
       </c>
       <c r="T2" t="n">
-        <v>258091009.94</v>
+        <v>551763159.7</v>
       </c>
       <c r="U2" t="n">
-        <v>-44.8038789962</v>
+        <v>-43.3845619894</v>
       </c>
       <c r="V2" t="n">
-        <v>7255176.73</v>
+        <v>33726088.97</v>
       </c>
       <c r="W2" t="n">
-        <v>49817014.54</v>
+        <v>97328288.76000001</v>
       </c>
       <c r="X2" t="n">
-        <v>-52707806.29</v>
+        <v>-66147911.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>113004479.21</v>
+        <v>31827798.96</v>
       </c>
       <c r="Z2" t="n">
-        <v>113584457.27</v>
+        <v>19131818.19</v>
       </c>
       <c r="AA2" t="n">
-        <v>20622116.21</v>
+        <v>-51874692.95</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>8707848.029999999</v>
+        <v>13512314.88</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>-39.5546227953</v>
+        <v>-36.5598255413</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-22.856344430111</v>
+        <v>154.399145628435</v>
       </c>
       <c r="AR2" t="n">
-        <v>-29.43</v>
+        <v>182.58</v>
       </c>
       <c r="AS2" t="n">
-        <v>88151580.43000001</v>
+        <v>73059847.69</v>
       </c>
       <c r="AT2" t="n">
-        <v>-28.143052552881</v>
+        <v>183.498554965292</v>
       </c>
     </row>
   </sheetData>
